--- a/biology/Botanique/Acaena_novae-zelandiae/Acaena_novae-zelandiae.xlsx
+++ b/biology/Botanique/Acaena_novae-zelandiae/Acaena_novae-zelandiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acaena novae-zelandiae, parfois appelée Acaena novaezelandiae ou Acaena novae-zelandica, est une espèce de plantes à fleurs de la famille des Rosacées originaire de Nouvelle-Zélande.
 </t>
@@ -511,13 +523,85 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée.
-Appareil végétatif
-Cette plante herbacée a des feuilles de 2 à 6 cm de longueur, qui ressemblent un peu à celles de la sanguisorbe. Les tiges florales atteignent entre 10 et 20 cm de hauteur[2]. 
-Appareil reproducteur
-Les inflorescences, sphériques, mesurent une dizaine de millimètres lors de la floraison et une trentaine lors de la fructification[2]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acaena_novae-zelandiae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acaena_novae-zelandiae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée a des feuilles de 2 à 6 cm de longueur, qui ressemblent un peu à celles de la sanguisorbe. Les tiges florales atteignent entre 10 et 20 cm de hauteur. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acaena_novae-zelandiae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acaena_novae-zelandiae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences, sphériques, mesurent une dizaine de millimètres lors de la floraison et une trentaine lors de la fructification. 
 </t>
         </is>
       </c>
